--- a/Racecard_20250223_7.xlsx
+++ b/Racecard_20250223_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="315">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,9 @@
     <t>上次班次</t>
   </si>
   <si>
+    <t>上次路程</t>
+  </si>
+  <si>
     <t>上次名次</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>前次總場次</t>
   </si>
   <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
     <t>前次名次</t>
   </si>
   <si>
@@ -286,13 +298,19 @@
     <t>前次賽事</t>
   </si>
   <si>
-    <t>2次調整後完成時間</t>
+    <t>2次調整後平均時間</t>
   </si>
   <si>
     <t>上次調整後完成秒速</t>
   </si>
   <si>
-    <t>2次調整後完成秒速</t>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
   </si>
   <si>
     <t>ST</t>
@@ -816,6 +834,18 @@
     <t>2:1.0</t>
   </si>
   <si>
+    <t>2024/10/13</t>
+  </si>
+  <si>
+    <t>2023/12/23</t>
+  </si>
+  <si>
+    <t>2024/12/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
+  </si>
+  <si>
     <t>何澤堯</t>
   </si>
   <si>
@@ -885,52 +915,52 @@
     <t>2:1.12</t>
   </si>
   <si>
-    <t>潘頓(2)4.0</t>
-  </si>
-  <si>
-    <t>薛恩(2)7.2</t>
-  </si>
-  <si>
-    <t>布宜學(6)11.0</t>
-  </si>
-  <si>
-    <t>田泰安(4)11.0</t>
-  </si>
-  <si>
-    <t>巴度(4)74.0</t>
-  </si>
-  <si>
-    <t>艾道拿(5)62.0</t>
-  </si>
-  <si>
-    <t>艾道拿(8)18.0</t>
-  </si>
-  <si>
-    <t>蔡明紹(7)38.0</t>
-  </si>
-  <si>
-    <t>梁家俊(9)57.0</t>
-  </si>
-  <si>
-    <t>艾道拿(2)30.0</t>
-  </si>
-  <si>
-    <t>潘頓(4)2.3</t>
-  </si>
-  <si>
-    <t>何澤堯(10)24.0</t>
-  </si>
-  <si>
-    <t>艾道拿(6)54.0</t>
-  </si>
-  <si>
-    <t>希威森(7)9.2</t>
-  </si>
-  <si>
-    <t>梁家俊(11)118.0</t>
-  </si>
-  <si>
-    <t>巴度(2)17.0</t>
+    <t>[25/02] 2000 潘頓 (2) 4.0</t>
+  </si>
+  <si>
+    <t>[24/03] 2000 薛恩 (2) 7.2</t>
+  </si>
+  <si>
+    <t>[24/03] 2000 布宜學 (6) 11.0</t>
+  </si>
+  <si>
+    <t>[17/11] 2000 田泰安 (4) 11.0</t>
+  </si>
+  <si>
+    <t>[28/04] 2000 巴度 (4) 74.0</t>
+  </si>
+  <si>
+    <t>[08/12] 2000 艾道拿 (5) 62.0</t>
+  </si>
+  <si>
+    <t>[17/11] 2000 艾道拿 (8) 18.0</t>
+  </si>
+  <si>
+    <t>[17/11] 2000 蔡明紹 (7) 38.0</t>
+  </si>
+  <si>
+    <t>[17/11] 2000 梁家俊 (9) 57.0</t>
+  </si>
+  <si>
+    <t>[19/01] 2000 艾道拿 (2) 30.0</t>
+  </si>
+  <si>
+    <t>[13/10] 2000 潘頓 (4) 2.3</t>
+  </si>
+  <si>
+    <t>[28/04] 2000 何澤堯 (10) 24.0</t>
+  </si>
+  <si>
+    <t>[28/04] 2000 艾道拿 (6) 54.0</t>
+  </si>
+  <si>
+    <t>[23/12] 2000 希威森 (7) 9.2</t>
+  </si>
+  <si>
+    <t>[28/04] 2000 梁家俊 (11) 118.0</t>
+  </si>
+  <si>
+    <t>[29/12] 2000 巴度 (2) 17.0</t>
   </si>
   <si>
     <t>2:0.88</t>
@@ -1310,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:CU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,22 +1626,40 @@
       <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:99">
       <c r="A2" s="2">
         <v>45711</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2000</v>
@@ -1620,25 +1668,25 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L2">
         <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>120</v>
@@ -1647,79 +1695,79 @@
         <v>130</v>
       </c>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="W2">
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AE2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AG2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AH2">
         <v>2023452</v>
       </c>
       <c r="AI2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK2">
+        <v>2000</v>
+      </c>
+      <c r="AL2">
         <v>2</v>
       </c>
-      <c r="AL2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM2">
+      <c r="AM2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN2">
         <v>4</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>126</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>0</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>7</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-6</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>25.39</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>49.28</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>222</v>
       </c>
       <c r="AU2" t="s">
         <v>228</v>
@@ -1727,70 +1775,76 @@
       <c r="AV2" t="s">
         <v>234</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>240</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ2">
         <v>25.91</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>24.29</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>23.8</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>23.15</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>23.21</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>46.36</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>-0.162</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>46.198</v>
       </c>
-      <c r="BH2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>283</v>
+      <c r="BI2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>112</v>
       </c>
       <c r="CM2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CN2">
+        <v>256</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CR2">
         <v>120.2</v>
       </c>
-      <c r="CO2">
+      <c r="CT2">
         <v>120.2</v>
       </c>
+      <c r="CU2">
+        <v>120.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:99">
       <c r="A3" s="2">
         <v>45711</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>2000</v>
@@ -1799,25 +1853,25 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L3">
         <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>116</v>
@@ -1826,76 +1880,76 @@
         <v>124</v>
       </c>
       <c r="S3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AB3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AE3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AF3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AG3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH3">
         <v>2023528</v>
       </c>
       <c r="AI3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AK3">
+        <v>2000</v>
+      </c>
+      <c r="AL3">
         <v>2</v>
       </c>
-      <c r="AL3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM3">
+      <c r="AM3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN3">
         <v>7.2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>126</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>0</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>14</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-9</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>25.53</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>49.45</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>223</v>
       </c>
       <c r="AU3" t="s">
         <v>229</v>
@@ -1903,70 +1957,76 @@
       <c r="AV3" t="s">
         <v>235</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>241</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ3">
         <v>27.01</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>24.16</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>23.52</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>22.82</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>22.4</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>45.22</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>-0.243</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>44.977</v>
       </c>
-      <c r="BH3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>284</v>
+      <c r="BI3" t="s">
+        <v>257</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>113</v>
       </c>
       <c r="CM3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CN3">
+        <v>257</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>294</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>257</v>
+      </c>
+      <c r="CR3">
         <v>119.67</v>
       </c>
-      <c r="CO3">
+      <c r="CT3">
         <v>119.67</v>
       </c>
+      <c r="CU3">
+        <v>119.67</v>
+      </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:99">
       <c r="A4" s="2">
         <v>45711</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>2000</v>
@@ -1975,25 +2035,25 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L4">
         <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O4">
         <v>7</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>114</v>
@@ -2002,79 +2062,79 @@
         <v>115</v>
       </c>
       <c r="S4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
       <c r="Y4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AB4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AG4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AH4">
         <v>2023528</v>
       </c>
       <c r="AI4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AK4">
+        <v>2000</v>
+      </c>
+      <c r="AL4">
         <v>6</v>
       </c>
-      <c r="AL4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM4">
+      <c r="AM4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN4">
         <v>11</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>126</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>9</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>-2</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>25.53</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>49.45</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>223</v>
       </c>
       <c r="AU4" t="s">
         <v>229</v>
@@ -2082,70 +2142,76 @@
       <c r="AV4" t="s">
         <v>235</v>
       </c>
-      <c r="AX4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY4">
+      <c r="AW4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ4">
         <v>25.77</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>23.96</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>23.28</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>23.5</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>24.06</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>47.56</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>-0.054</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>47.506</v>
       </c>
-      <c r="BH4" t="s">
-        <v>252</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>252</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>285</v>
+      <c r="BI4" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>114</v>
       </c>
       <c r="CM4" t="s">
-        <v>252</v>
-      </c>
-      <c r="CN4">
+        <v>258</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>295</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR4">
         <v>120.52</v>
       </c>
-      <c r="CO4">
+      <c r="CT4">
         <v>120.52</v>
       </c>
+      <c r="CU4">
+        <v>120.52</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:99">
       <c r="A5" s="2">
         <v>45711</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>2000</v>
@@ -2154,25 +2220,25 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L5">
         <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>114</v>
@@ -2181,76 +2247,76 @@
         <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AB5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AD5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AF5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH5">
         <v>2024190</v>
       </c>
       <c r="AI5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AK5">
+        <v>2000</v>
+      </c>
+      <c r="AL5">
         <v>4</v>
       </c>
-      <c r="AL5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM5">
+      <c r="AM5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN5">
         <v>11</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>123</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>3</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>11</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-5</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>25.83</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>49.26</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>224</v>
       </c>
       <c r="AU5" t="s">
         <v>230</v>
@@ -2258,145 +2324,163 @@
       <c r="AV5" t="s">
         <v>236</v>
       </c>
-      <c r="AX5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AY5">
+      <c r="AW5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ5">
         <v>26.39</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>23.63</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>23.27</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>23.13</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>24.01</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>47.14</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>-0.09000000000000001</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>47.05</v>
       </c>
-      <c r="BH5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BI5">
+      <c r="BI5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BJ5">
         <v>2024095</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM5">
+        <v>2000</v>
+      </c>
+      <c r="BN5">
         <v>4</v>
       </c>
-      <c r="BK5" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL5">
+      <c r="BO5" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP5">
         <v>2.3</v>
       </c>
-      <c r="BM5">
+      <c r="BQ5">
         <v>135</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <v>-9</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <v>5</v>
       </c>
-      <c r="BP5">
+      <c r="BT5">
         <v>1</v>
       </c>
-      <c r="BQ5">
+      <c r="BU5">
         <v>26.76</v>
       </c>
-      <c r="BR5">
+      <c r="BV5">
         <v>50.59</v>
       </c>
-      <c r="BS5" t="s">
-        <v>262</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>265</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>268</v>
-      </c>
       <c r="BW5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BX5">
+        <v>272</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>278</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>281</v>
+      </c>
+      <c r="CB5">
         <v>26.76</v>
       </c>
-      <c r="BY5">
+      <c r="CC5">
         <v>24.39</v>
       </c>
-      <c r="BZ5">
+      <c r="CD5">
         <v>24.28</v>
       </c>
-      <c r="CA5">
+      <c r="CE5">
         <v>22.95</v>
       </c>
-      <c r="CB5">
+      <c r="CF5">
         <v>23.14</v>
       </c>
-      <c r="CD5">
+      <c r="CH5">
         <v>46.09</v>
       </c>
-      <c r="CE5">
+      <c r="CI5">
         <v>-0.108</v>
       </c>
-      <c r="CF5">
+      <c r="CJ5">
         <v>45.98200000000001</v>
       </c>
-      <c r="CG5" t="s">
-        <v>277</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>253</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>286</v>
-      </c>
       <c r="CK5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="CL5" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="CM5" t="s">
-        <v>299</v>
-      </c>
-      <c r="CN5">
+        <v>259</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>296</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>287</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>303</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>309</v>
+      </c>
+      <c r="CR5">
         <v>120.34</v>
       </c>
-      <c r="CO5">
+      <c r="CS5">
+        <v>121.41</v>
+      </c>
+      <c r="CT5">
         <v>120.88</v>
       </c>
+      <c r="CU5">
+        <v>120.34</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:99">
       <c r="A6" s="2">
         <v>45711</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>2000</v>
@@ -2405,25 +2489,25 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L6">
         <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>114</v>
@@ -2432,79 +2516,79 @@
         <v>111</v>
       </c>
       <c r="S6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="W6">
         <v>6</v>
       </c>
       <c r="Y6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AB6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AG6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH6">
         <v>2023624</v>
       </c>
       <c r="AI6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AJ6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK6">
+        <v>2000</v>
+      </c>
+      <c r="AL6">
         <v>4</v>
       </c>
-      <c r="AL6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM6">
+      <c r="AM6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN6">
         <v>74</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>126</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>7</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>-3</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>25.1</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>48.04</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>225</v>
       </c>
       <c r="AU6" t="s">
         <v>231</v>
@@ -2512,70 +2596,76 @@
       <c r="AV6" t="s">
         <v>237</v>
       </c>
-      <c r="AX6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AY6">
+      <c r="AW6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AZ6">
         <v>25.46</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>23.38</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>23.75</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>23.96</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>24.95</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>48.91</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>-0.081</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>48.82899999999999</v>
       </c>
-      <c r="BH6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>287</v>
+      <c r="BI6" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>116</v>
       </c>
       <c r="CM6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CN6">
+        <v>260</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>297</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>260</v>
+      </c>
+      <c r="CR6">
         <v>121.42</v>
       </c>
-      <c r="CO6">
+      <c r="CT6">
         <v>121.42</v>
       </c>
+      <c r="CU6">
+        <v>121.42</v>
+      </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:99">
       <c r="A7" s="2">
         <v>45711</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>2000</v>
@@ -2584,25 +2674,25 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L7">
         <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O7">
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>114</v>
@@ -2611,79 +2701,79 @@
         <v>113</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AD7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AF7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH7">
         <v>2024247</v>
       </c>
       <c r="AI7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AJ7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AK7">
+        <v>2000</v>
+      </c>
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AL7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM7">
+      <c r="AM7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN7">
         <v>62</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>126</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>0</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>4</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>5</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>26.34</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>50.45</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>226</v>
       </c>
       <c r="AU7" t="s">
         <v>232</v>
@@ -2691,145 +2781,163 @@
       <c r="AV7" t="s">
         <v>238</v>
       </c>
-      <c r="AX7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AY7">
+      <c r="AW7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ7">
         <v>26.66</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>24.43</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>23.71</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>23.48</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>23.03</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>46.51</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>0.135</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>46.645</v>
       </c>
-      <c r="BH7" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI7">
+      <c r="BI7" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ7">
         <v>2023624</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM7">
+        <v>2000</v>
+      </c>
+      <c r="BN7">
         <v>10</v>
       </c>
-      <c r="BK7" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL7">
+      <c r="BO7" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP7">
         <v>24</v>
       </c>
-      <c r="BM7">
+      <c r="BQ7">
         <v>126</v>
       </c>
-      <c r="BN7">
+      <c r="BR7">
         <v>0</v>
       </c>
-      <c r="BO7">
+      <c r="BS7">
         <v>6</v>
       </c>
-      <c r="BP7">
+      <c r="BT7">
         <v>3</v>
       </c>
-      <c r="BQ7">
+      <c r="BU7">
         <v>25.1</v>
       </c>
-      <c r="BR7">
+      <c r="BV7">
         <v>48.04</v>
       </c>
-      <c r="BS7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BT7" t="s">
+      <c r="BW7" t="s">
         <v>231</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BX7" t="s">
         <v>237</v>
       </c>
-      <c r="BW7" t="s">
-        <v>272</v>
-      </c>
-      <c r="BX7">
+      <c r="BY7" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB7">
         <v>25.74</v>
       </c>
-      <c r="BY7">
+      <c r="CC7">
         <v>23.46</v>
       </c>
-      <c r="BZ7">
+      <c r="CD7">
         <v>24.03</v>
       </c>
-      <c r="CA7">
+      <c r="CE7">
         <v>23.68</v>
       </c>
-      <c r="CB7">
+      <c r="CF7">
         <v>27.65</v>
       </c>
-      <c r="CD7">
+      <c r="CH7">
         <v>51.33</v>
       </c>
-      <c r="CE7">
+      <c r="CI7">
         <v>0.081</v>
       </c>
-      <c r="CF7">
+      <c r="CJ7">
         <v>51.411</v>
       </c>
-      <c r="CG7" t="s">
-        <v>278</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>111</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>255</v>
-      </c>
-      <c r="CJ7" t="s">
+      <c r="CK7" t="s">
         <v>288</v>
       </c>
-      <c r="CK7" t="s">
-        <v>278</v>
-      </c>
       <c r="CL7" t="s">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="CM7" t="s">
-        <v>300</v>
-      </c>
-      <c r="CN7">
+        <v>261</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>288</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>310</v>
+      </c>
+      <c r="CR7">
         <v>121.45</v>
       </c>
-      <c r="CO7">
+      <c r="CS7">
+        <v>124.64</v>
+      </c>
+      <c r="CT7">
         <v>123.05</v>
       </c>
+      <c r="CU7">
+        <v>121.45</v>
+      </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:99">
       <c r="A8" s="2">
         <v>45711</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>2000</v>
@@ -2838,25 +2946,25 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L8">
         <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>113</v>
@@ -2865,79 +2973,79 @@
         <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="W8">
         <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AB8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AF8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AG8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH8">
         <v>2024190</v>
       </c>
       <c r="AI8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AK8">
+        <v>2000</v>
+      </c>
+      <c r="AL8">
         <v>8</v>
       </c>
-      <c r="AL8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM8">
+      <c r="AM8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN8">
         <v>18</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>123</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>3</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>9</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>1</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>25.83</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>49.26</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>224</v>
       </c>
       <c r="AU8" t="s">
         <v>230</v>
@@ -2945,145 +3053,163 @@
       <c r="AV8" t="s">
         <v>236</v>
       </c>
-      <c r="AX8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AY8">
+      <c r="AW8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ8">
         <v>26.99</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>23.83</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>23.27</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>22.65</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>23.96</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>46.61</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>0.07199999999999999</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>46.682</v>
       </c>
-      <c r="BH8" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI8">
+      <c r="BI8" t="s">
+        <v>262</v>
+      </c>
+      <c r="BJ8">
         <v>2023624</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM8">
+        <v>2000</v>
+      </c>
+      <c r="BN8">
         <v>6</v>
       </c>
-      <c r="BK8" t="s">
-        <v>219</v>
-      </c>
-      <c r="BL8">
+      <c r="BO8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP8">
         <v>54</v>
       </c>
-      <c r="BM8">
+      <c r="BQ8">
         <v>126</v>
       </c>
-      <c r="BN8">
+      <c r="BR8">
         <v>0</v>
       </c>
-      <c r="BO8">
+      <c r="BS8">
         <v>8</v>
       </c>
-      <c r="BP8">
+      <c r="BT8">
         <v>2</v>
       </c>
-      <c r="BQ8">
+      <c r="BU8">
         <v>25.1</v>
       </c>
-      <c r="BR8">
+      <c r="BV8">
         <v>48.04</v>
       </c>
-      <c r="BS8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="BW8" t="s">
         <v>231</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BX8" t="s">
         <v>237</v>
       </c>
-      <c r="BW8" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX8">
+      <c r="BY8" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB8">
         <v>26.18</v>
       </c>
-      <c r="BY8">
+      <c r="CC8">
         <v>23.18</v>
       </c>
-      <c r="BZ8">
+      <c r="CD8">
         <v>23.91</v>
       </c>
-      <c r="CA8">
+      <c r="CE8">
         <v>23.56</v>
       </c>
-      <c r="CB8">
+      <c r="CF8">
         <v>24.73</v>
       </c>
-      <c r="CD8">
+      <c r="CH8">
         <v>48.29</v>
       </c>
-      <c r="CE8">
+      <c r="CI8">
         <v>0.054</v>
       </c>
-      <c r="CF8">
+      <c r="CJ8">
         <v>48.344</v>
       </c>
-      <c r="CG8" t="s">
-        <v>279</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>256</v>
-      </c>
-      <c r="CJ8" t="s">
+      <c r="CK8" t="s">
         <v>289</v>
       </c>
-      <c r="CK8" t="s">
-        <v>279</v>
-      </c>
       <c r="CL8" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="CM8" t="s">
-        <v>301</v>
-      </c>
-      <c r="CN8">
+        <v>262</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>311</v>
+      </c>
+      <c r="CR8">
         <v>120.77</v>
       </c>
-      <c r="CO8">
+      <c r="CS8">
+        <v>121.61</v>
+      </c>
+      <c r="CT8">
         <v>121.19</v>
       </c>
+      <c r="CU8">
+        <v>120.77</v>
+      </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:99">
       <c r="A9" s="2">
         <v>45711</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>2000</v>
@@ -3092,25 +3218,25 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L9">
         <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>111</v>
@@ -3119,79 +3245,79 @@
         <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="W9">
         <v>6</v>
       </c>
       <c r="Y9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AB9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AE9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AF9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH9">
         <v>2024190</v>
       </c>
       <c r="AI9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AK9">
+        <v>2000</v>
+      </c>
+      <c r="AL9">
         <v>7</v>
       </c>
-      <c r="AL9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM9">
+      <c r="AM9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN9">
         <v>38</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>123</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>3</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>5</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>-3</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>25.83</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>49.26</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>224</v>
       </c>
       <c r="AU9" t="s">
         <v>230</v>
@@ -3199,145 +3325,163 @@
       <c r="AV9" t="s">
         <v>236</v>
       </c>
-      <c r="AX9" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY9">
+      <c r="AW9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ9">
         <v>26.47</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>23.79</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>23.27</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>23.13</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>23.98</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>47.11</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>-0.036</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>47.074</v>
       </c>
-      <c r="BH9" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI9">
+      <c r="BI9" t="s">
+        <v>263</v>
+      </c>
+      <c r="BJ9">
         <v>2023275</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM9">
+        <v>2000</v>
+      </c>
+      <c r="BN9">
         <v>7</v>
       </c>
-      <c r="BK9" t="s">
-        <v>261</v>
-      </c>
-      <c r="BL9">
+      <c r="BO9" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP9">
         <v>9.199999999999999</v>
       </c>
-      <c r="BM9">
+      <c r="BQ9">
         <v>125</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <v>1</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <v>5</v>
       </c>
-      <c r="BP9">
+      <c r="BT9">
         <v>-3</v>
       </c>
-      <c r="BQ9">
+      <c r="BU9">
         <v>25.93</v>
       </c>
-      <c r="BR9">
+      <c r="BV9">
         <v>49.42</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BW9" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>276</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB9">
+        <v>26.81</v>
+      </c>
+      <c r="CC9">
+        <v>24.09</v>
+      </c>
+      <c r="CD9">
+        <v>23.92</v>
+      </c>
+      <c r="CE9">
+        <v>23.56</v>
+      </c>
+      <c r="CF9">
+        <v>24.11</v>
+      </c>
+      <c r="CH9">
+        <v>47.67</v>
+      </c>
+      <c r="CI9">
+        <v>-0.066</v>
+      </c>
+      <c r="CJ9">
+        <v>47.604</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM9" t="s">
         <v>263</v>
       </c>
-      <c r="BT9" t="s">
-        <v>266</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>269</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>274</v>
-      </c>
-      <c r="BX9">
-        <v>26.81</v>
-      </c>
-      <c r="BY9">
-        <v>24.09</v>
-      </c>
-      <c r="BZ9">
-        <v>23.92</v>
-      </c>
-      <c r="CA9">
-        <v>23.56</v>
-      </c>
-      <c r="CB9">
-        <v>24.11</v>
-      </c>
-      <c r="CD9">
-        <v>47.67</v>
-      </c>
-      <c r="CE9">
-        <v>-0.066</v>
-      </c>
-      <c r="CF9">
-        <v>47.604</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>113</v>
-      </c>
-      <c r="CI9" t="s">
-        <v>257</v>
-      </c>
-      <c r="CJ9" t="s">
+      <c r="CN9" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO9" t="s">
         <v>290</v>
       </c>
-      <c r="CK9" t="s">
-        <v>280</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>296</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>302</v>
-      </c>
-      <c r="CN9">
+      <c r="CP9" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>312</v>
+      </c>
+      <c r="CR9">
         <v>120.6</v>
       </c>
-      <c r="CO9">
+      <c r="CS9">
+        <v>122.42</v>
+      </c>
+      <c r="CT9">
         <v>121.51</v>
       </c>
+      <c r="CU9">
+        <v>120.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:99">
       <c r="A10" s="2">
         <v>45711</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G10">
         <v>2000</v>
@@ -3346,25 +3490,25 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L10">
         <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O10">
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>108</v>
@@ -3373,79 +3517,79 @@
         <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AB10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AE10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AG10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH10">
         <v>2024190</v>
       </c>
       <c r="AI10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AK10">
+        <v>2000</v>
+      </c>
+      <c r="AL10">
         <v>9</v>
       </c>
-      <c r="AL10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM10">
+      <c r="AM10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN10">
         <v>57</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>123</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>3</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>10</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>-2</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>25.83</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>49.26</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>224</v>
       </c>
       <c r="AU10" t="s">
         <v>230</v>
@@ -3453,145 +3597,163 @@
       <c r="AV10" t="s">
         <v>236</v>
       </c>
-      <c r="AX10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AY10">
+      <c r="AW10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ10">
         <v>25.83</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>23.43</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>23.27</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>23.45</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>25.42</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>48.87</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
         <v>-0.009000000000000001</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <v>48.861</v>
       </c>
-      <c r="BH10" t="s">
-        <v>258</v>
-      </c>
-      <c r="BI10">
+      <c r="BI10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ10">
         <v>2023624</v>
       </c>
-      <c r="BJ10">
+      <c r="BK10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM10">
+        <v>2000</v>
+      </c>
+      <c r="BN10">
         <v>11</v>
       </c>
-      <c r="BK10" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL10">
+      <c r="BO10" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP10">
         <v>118</v>
       </c>
-      <c r="BM10">
+      <c r="BQ10">
         <v>126</v>
       </c>
-      <c r="BN10">
+      <c r="BR10">
         <v>0</v>
       </c>
-      <c r="BO10">
+      <c r="BS10">
         <v>4</v>
       </c>
-      <c r="BP10">
+      <c r="BT10">
         <v>4</v>
       </c>
-      <c r="BQ10">
+      <c r="BU10">
         <v>25.1</v>
       </c>
-      <c r="BR10">
+      <c r="BV10">
         <v>48.04</v>
       </c>
-      <c r="BS10" t="s">
-        <v>225</v>
-      </c>
-      <c r="BT10" t="s">
+      <c r="BW10" t="s">
         <v>231</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BX10" t="s">
         <v>237</v>
       </c>
-      <c r="BW10" t="s">
-        <v>275</v>
-      </c>
-      <c r="BX10">
+      <c r="BY10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>285</v>
+      </c>
+      <c r="CB10">
         <v>25.22</v>
       </c>
-      <c r="BY10">
+      <c r="CC10">
         <v>23.22</v>
       </c>
-      <c r="BZ10">
+      <c r="CD10">
         <v>23.87</v>
       </c>
-      <c r="CA10">
+      <c r="CE10">
         <v>24.32</v>
       </c>
-      <c r="CB10">
+      <c r="CF10">
         <v>30.44</v>
       </c>
-      <c r="CD10">
+      <c r="CH10">
         <v>54.76</v>
       </c>
-      <c r="CE10">
+      <c r="CI10">
         <v>0.108</v>
       </c>
-      <c r="CF10">
+      <c r="CJ10">
         <v>54.86799999999999</v>
       </c>
-      <c r="CG10" t="s">
-        <v>281</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>114</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>258</v>
-      </c>
-      <c r="CJ10" t="s">
+      <c r="CK10" t="s">
         <v>291</v>
       </c>
-      <c r="CK10" t="s">
-        <v>281</v>
-      </c>
       <c r="CL10" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="CM10" t="s">
-        <v>303</v>
-      </c>
-      <c r="CN10">
+        <v>264</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>291</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>307</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>313</v>
+      </c>
+      <c r="CR10">
         <v>121.39</v>
       </c>
-      <c r="CO10">
+      <c r="CS10">
+        <v>127.18</v>
+      </c>
+      <c r="CT10">
         <v>124.28</v>
       </c>
+      <c r="CU10">
+        <v>121.39</v>
+      </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:99">
       <c r="A11" s="2">
         <v>45711</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>2000</v>
@@ -3600,25 +3762,25 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L11">
         <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>97</v>
@@ -3627,79 +3789,79 @@
         <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="U11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="V11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
       <c r="Y11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AC11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AD11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AE11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AF11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH11">
         <v>2024365</v>
       </c>
       <c r="AI11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AJ11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AK11">
+        <v>2000</v>
+      </c>
+      <c r="AL11">
         <v>2</v>
       </c>
-      <c r="AL11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM11">
+      <c r="AM11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN11">
         <v>30</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>127</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>-1</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>4</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>-1</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>25.48</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>49.64</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>227</v>
       </c>
       <c r="AU11" t="s">
         <v>233</v>
@@ -3707,128 +3869,146 @@
       <c r="AV11" t="s">
         <v>239</v>
       </c>
-      <c r="AX11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY11">
+      <c r="AW11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ11">
         <v>25.64</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>24.24</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>24.38</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>23.29</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>23.49</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>46.78</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>-0.042</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <v>46.738</v>
       </c>
-      <c r="BH11" t="s">
-        <v>259</v>
-      </c>
-      <c r="BI11">
+      <c r="BI11" t="s">
+        <v>265</v>
+      </c>
+      <c r="BJ11">
         <v>2024299</v>
       </c>
-      <c r="BJ11">
-        <v>2</v>
-      </c>
       <c r="BK11" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL11">
-        <v>17</v>
+        <v>268</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>219</v>
       </c>
       <c r="BM11">
-        <v>124</v>
+        <v>2000</v>
       </c>
       <c r="BN11">
         <v>2</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="s">
+        <v>224</v>
+      </c>
+      <c r="BP11">
+        <v>17</v>
+      </c>
+      <c r="BQ11">
+        <v>124</v>
+      </c>
+      <c r="BR11">
+        <v>2</v>
+      </c>
+      <c r="BS11">
         <v>4</v>
       </c>
-      <c r="BP11">
+      <c r="BT11">
         <v>-1</v>
       </c>
-      <c r="BQ11">
+      <c r="BU11">
         <v>26.65</v>
       </c>
-      <c r="BR11">
+      <c r="BV11">
         <v>50.86</v>
       </c>
-      <c r="BS11" t="s">
-        <v>264</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>270</v>
-      </c>
       <c r="BW11" t="s">
-        <v>276</v>
-      </c>
-      <c r="BX11">
+        <v>274</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>277</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>280</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>286</v>
+      </c>
+      <c r="CB11">
         <v>26.85</v>
       </c>
-      <c r="BY11">
+      <c r="CC11">
         <v>24.29</v>
       </c>
-      <c r="BZ11">
+      <c r="CD11">
         <v>23.39</v>
       </c>
-      <c r="CA11">
+      <c r="CE11">
         <v>22.97</v>
       </c>
-      <c r="CB11">
+      <c r="CF11">
         <v>23.62</v>
       </c>
-      <c r="CD11">
+      <c r="CH11">
         <v>46.59</v>
       </c>
-      <c r="CE11">
+      <c r="CI11">
         <v>0.002999999999999999</v>
       </c>
-      <c r="CF11">
+      <c r="CJ11">
         <v>46.593</v>
       </c>
-      <c r="CG11" t="s">
-        <v>282</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>115</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>259</v>
-      </c>
-      <c r="CJ11" t="s">
+      <c r="CK11" t="s">
         <v>292</v>
       </c>
-      <c r="CK11" t="s">
-        <v>282</v>
-      </c>
       <c r="CL11" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="CM11" t="s">
-        <v>304</v>
-      </c>
-      <c r="CN11">
+        <v>265</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>292</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>314</v>
+      </c>
+      <c r="CR11">
         <v>121</v>
       </c>
-      <c r="CO11">
+      <c r="CS11">
+        <v>121.12</v>
+      </c>
+      <c r="CT11">
         <v>121.06</v>
+      </c>
+      <c r="CU11">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
